--- a/readings/reading_summary.xlsx
+++ b/readings/reading_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc2afa199259e734/Desktop/Network Size/readings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashle\OneDrive\Desktop\FSU\Network Size\network-size\readings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="8_{793FD0BC-CC00-4641-B404-7420BBC7757F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A44293B6-31C4-4F4E-8388-0836E5378637}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="8_{793FD0BC-CC00-4641-B404-7420BBC7757F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FE021A40-82FD-475C-9111-88F8AF640D03}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{3C370B42-63FF-4311-AA95-C5A1A23CB30E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="162">
   <si>
     <t xml:space="preserve">Title </t>
   </si>
@@ -616,10 +615,6 @@
     <t>Lee and Bearman (2020)</t>
   </si>
   <si>
-    <t xml:space="preserve">TESS data from 2016
-Ignoring potential misreporting of 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">TESS data 2016
 Nationally representative survey experiment of 1,055 American adults during the fall of the 2016 U.S. presidential election </t>
   </si>
@@ -696,6 +691,131 @@
   </si>
   <si>
     <t>5 lines provided, they can note more though</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESS data from 2016
+Ignoring potential misreporting of 0 
+Research to separate important matters from political matters, as this is often confounded together. </t>
+  </si>
+  <si>
+    <t>Cloning Headless Frogs and Other Important Matters: 
+Conversation Topics and Network Structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Important Matters" is a vague term that leads to question the name generator in GSS.
+The question is whether people report no network because they have no on to talk to
+or nothing to talk about. About 50% for both cases. There are asymmetries across 
+groups, so generalizations across cultures/groups may be risky. </t>
+  </si>
+  <si>
+    <t>Network size is not measured;
+reason for no network is</t>
+  </si>
+  <si>
+    <t>Look at zero depending on reason - no important matters to discuss
+or no one to discuss them with</t>
+  </si>
+  <si>
+    <t>Bearman and Parigi (2004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Socially isolated" versus "unconcerned" zeroes
+Priming individuals prior to asking the important matters question
+increases names provided by 1.2 on average, less likelihood of being
+ unconcerned zeroes, but does not change the socially isolated zeroes, 
+suggesting the increase is not an "invention of partners". </t>
+  </si>
+  <si>
+    <t>Brashears (2011)</t>
+  </si>
+  <si>
+    <t>Small networks and high isolation? A reexamination of American discussion networks</t>
+  </si>
+  <si>
+    <t>Respondents answered four global estimator items, indicating how many
+others they know by name and face, how many others there are
+with whom they could discuss important matters, how many others there are from whom they could borrow a large sum of money,
+and how many others there are with whom they could engage in
+social activities. In all four items there was no requirement that the
+respondent have actually engaged in the specified activity with a
+specific person during a particular period of time.</t>
+  </si>
+  <si>
+    <t>0-24; 0 separated as socially isolated 
+versus unconcerned</t>
+  </si>
+  <si>
+    <t>zero broken out into socially isolated versus unconcerned</t>
+  </si>
+  <si>
+    <t>The 2004 GSS Finding of Shrunken Social Networks: An Artifact?</t>
+  </si>
+  <si>
+    <t>Fischer (2006)</t>
+  </si>
+  <si>
+    <t>Question 1: From time to time, most people discuss important matters with other
+people. Looking back over the last six months, that is, since early last May, have
+you discussed important matters with anyone?
+Question 2: Thinking back to the most recent discussion you had about an
+important matter, would you mind telling me, briefly, what was the general topic
+of this discussion?
+Question 3: Most recently, is the person you talked to about this matter: a spouse,
+other relative, friend, counselor, lawyer, doctor, acquaintance, or what?
+Question 4: Which best describes why you haven’t discussed any important matters
+with others lately. Would you say that: (1) You haven’t had any important matters
+to discuss in the last six months, or (2) You haven’t had a person you wanted to
+discuss important matters with in the last six months.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina Poll (Nov 1997)
+</t>
+  </si>
+  <si>
+    <t>Nationally-representative survey of noninstitutionalized adults, using TESS</t>
+  </si>
+  <si>
+    <t>This is a review of some works and a particular questioning of the 
+validity of the GSS; in particular, it poses some theories, one of them
+being exhaustion and interviewer effects; however, Brashears (2011)
+shows this to not be true as exhaustion effects were not significant</t>
+  </si>
+  <si>
+    <t>More of a review paper, no particular tests/hypotheses</t>
+  </si>
+  <si>
+    <t>Are respondents more likely to list alters with certain characteristics? Implications for name generator data</t>
+  </si>
+  <si>
+    <t>Marin (2004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shows the underreporting of network size, tied to density, duration 
+of relationship, and closeness to individuals. Higher values on all three
+is higher accuracy of network size. </t>
+  </si>
+  <si>
+    <t>survey where participants were recruited through a flyer 
+at a social science building in a university</t>
+  </si>
+  <si>
+    <t>GSS name generator, then promopt of different groups and people in those groups with them,
+then name generator again. 
+“In the following set of questions you will be asked to think about the people who you know
+from groups or activities that you participate in”.
+“You may have discussed important matters with some of these people and forgotten to list
+them earlier. It is very important that you provide a complete list of people with whom you
+have discussed important matters. Therefore, please think carefully about the people who
+fit into each of these categories. If you have discussed important matters with any of these
+people and not yet listed them, please list their first names in the boxes provided. Use an
+initial if two people share the same name. You need not re-enter the names of people you
+have already listed”</t>
+  </si>
+  <si>
+    <t>GSS name genetor for network size</t>
+  </si>
+  <si>
+    <t>0=0, no distinctions made as to the potential differences in the zeroes</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED110036-0BCB-4E90-8ACC-C48100978C4A}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1350,19 +1470,19 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="155">
@@ -1370,22 +1490,22 @@
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="186">
@@ -1396,19 +1516,19 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="46.5">
@@ -1514,7 +1634,7 @@
         <v>115</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>114</v>
@@ -1534,19 +1654,19 @@
         <v>117</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="170.5">
@@ -1570,6 +1690,98 @@
       </c>
       <c r="G21" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="372">
+      <c r="A22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="201.5">
+      <c r="A23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="124">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="325.5">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/readings/reading_summary.xlsx
+++ b/readings/reading_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashle\OneDrive\Desktop\FSU\Network Size\network-size\readings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="8_{793FD0BC-CC00-4641-B404-7420BBC7757F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FE021A40-82FD-475C-9111-88F8AF640D03}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="8_{793FD0BC-CC00-4641-B404-7420BBC7757F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5626B195-E872-4F93-9742-5BF036D18315}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{3C370B42-63FF-4311-AA95-C5A1A23CB30E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="169">
   <si>
     <t xml:space="preserve">Title </t>
   </si>
@@ -214,6 +214,513 @@
   </si>
   <si>
     <t>Compared zero network answer to the responses provided in the summary network size measure and noted that those that reported zero in the network size measure often reported a non-zero answer in the summary network size measure</t>
+  </si>
+  <si>
+    <t>Social connectedness as seen by network size (0-5; 0 is a 0)
+Political behavior (ideology, political participation)</t>
+  </si>
+  <si>
+    <t>CNES-A (1992)</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>Zero = zero (more socially isolated)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hypothesis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Political behavior can spread through an online social network
+· Randomized controlled trial
+· "I voted", Find polling place, actually vote 
+     · Close friends online &gt; influence on all 3
+     · Friends &gt; influence on 1
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook online experiment </t>
+  </si>
+  <si>
+    <t>Friends versus close friends on FB:
+"close friends" = 80th percentile of frequency of interaction 
+"Friends" = all others
+Political Participation = clicks and interactions on polling place, likelihood of voting, and reporting of voting</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Actions on Facebook presented as ads</t>
+  </si>
+  <si>
+    <t>Index - One point was assigned if: 
+participants were not married (never married, separated, divorced, widowed)
+were living alone
+had less than monthly contact with their children and friends
+did not participate in any volunteer work or social groups (social clubs, resident groups, or religious groups) in the last 3 months. This resulted in a scale ranging from 0 to 6. 
+≥4 versus &lt;4 points to indicate high versus low level of social isolation</t>
+  </si>
+  <si>
+    <t>Social Isolation, Loneliness, and All-Cause Mortality in Patients With Cardiovascular Disease
+A 10-Year Follow-up Study</t>
+  </si>
+  <si>
+    <t>Yu et al (2020)</t>
+  </si>
+  <si>
+    <t>Social isolation leads to higher mortality rates, particularly for CVD
+Social Isolation in measured as an index (often used in other medical studies)</t>
+  </si>
+  <si>
+    <t>Cohort of CVD patients followed for up to 10 years to see health</t>
+  </si>
+  <si>
+    <t>zero = high social isoloation, 6 = socially isolated</t>
+  </si>
+  <si>
+    <t>patients - isolated versus not isolated</t>
+  </si>
+  <si>
+    <t>social network size - asked who:
+1) they like to talk to and do things with
+2) have invited them out during the last 4 weeks
+3) they can borrow things from and ask favors of
+4) could help them make a very important personal decision
+5) they could talk with and who would understand them if a very close friend or relative was extremely ill or had just died
+6) would talk to them, encourage them, and make them feel better about themselves when everything goes wrong and they feel down and discouraged and even doubt their own worth. 
+multiple measures created from this - total number of different people mentioned was recorded as network size</t>
+  </si>
+  <si>
+    <t>respond to the questions - no limits noted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero = zero </t>
+  </si>
+  <si>
+    <t>· Three-process Theory: compliance, identification,
+and internalization
+· Smoke experiment in psychology
+     · Bystander effect (Latane and Darley)
+          · Look to others for social cues</t>
+  </si>
+  <si>
+    <t>· Data from Southbend election survey
+· Social networks only influence participation when they 
+carry political substance even when contorlling for
+membership in formal institutions
+· 1984 presidential 
+· Names of people they talk about politics to
+     · Political activities
+          · Again, no social media</t>
+  </si>
+  <si>
+    <t>who do they talk to regarding politics? Up to 3 people</t>
+  </si>
+  <si>
+    <t>South Bend Data Survey - 3 waves - 1984 election</t>
+  </si>
+  <si>
+    <t>zero = zero</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>Network Size - the number of people that an individual discusses political topics on a regular basis
+Summary Network Size Measure - simply ask them to estimate their network size
+GSS: Asked in terms of "good friends" network
+DDB question: “Outside your immediate family, how many people do you often talk with
+about politics or public affairs?” 
+Battleground question: “How many people did you talk to about politics in an average week?” 
+Student activity group question: For each other member of the group, respondents were asked: “Please indicate ... how often you have talked to _____ about the presidential campaign this quarter (fall 2008),”
+Polimetrix question: “During a typical week, with how many different people do you
+usually discuss politics?” 
+Qualtrics question: “In a typical week, about how many people do you talk
+about politics and public affairs with?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zero = zero </t>
+  </si>
+  <si>
+    <t>1985 GSS</t>
+  </si>
+  <si>
+    <t>Name generator question - Marsden GSS; 
+Spouse, Parent, Sibling, Child,
+ Other family, Coworker, Member of group,
+ Neighbor, Friend, Advisor, Other
+Network density:
+coded 0 if the respondent reports that two of his
+or her confidants are total strangers, 1 if they are
+especially close, and 0.5 otherwise</t>
+  </si>
+  <si>
+    <t>Psychology Theory</t>
+  </si>
+  <si>
+    <t>Social Isolation in America: Changes in Cope Discussion Networks over Two Decades</t>
+  </si>
+  <si>
+    <t>Redid three studies - see notes column</t>
+  </si>
+  <si>
+    <t>Network Size - focus on DK
+Dropped versus included in as inaccurate across all three studies</t>
+  </si>
+  <si>
+    <t>name people, no limit mentioned</t>
+  </si>
+  <si>
+    <t>Depends on study</t>
+  </si>
+  <si>
+    <t>Network size - DKs were dropped and compared to DKs included but marked inaccurate</t>
+  </si>
+  <si>
+    <t>Social Network Size - asked about multiple alters
+Social connectedness and frequency of contact</t>
+  </si>
+  <si>
+    <t>Longitudinal study of sexual and drug use ego networks</t>
+  </si>
+  <si>
+    <t>no limits noted for network size</t>
+  </si>
+  <si>
+    <t>· They look at close relationships
+· When you ask for more people, there tends to be more error
+· The types of relationships also matter 
+Of note, there was also the situation where people did not report alters not because they did not have a network, but because they couldn't remember the name
+Discrepancies between how those people were addressed was very minor. Based on these discrepancies, we infer that informants who give a global estimate of network size do not generally construct a complete internal list of alters except when there are only a few alters.</t>
+  </si>
+  <si>
+    <t>Keeping versus dropping people that did not mention network people because they forgot names</t>
+  </si>
+  <si>
+    <t>Network size in terms of important matters</t>
+  </si>
+  <si>
+    <t>2004/2010 GSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004 and 2010 Face to Face GSS
+Negative correlation between interviwer effects and mean network size
+social connectedness declining?
+Measurement error and at interviwer level
+     Item wording
+     Questionnaire construction
+     Missing data due to item-level response
+     Systematic interviewer effects
+DV = important-matters name generator
+     page 343, up to 6, push if less than 5
+Face-to-face contacts
+Look at friends and geograhpic components as well
+</t>
+  </si>
+  <si>
+    <t>0-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Later in the survey = less likely to respond
+Look at time limits, relationship types, relationship quality, and frequency of contact
+2011-2013 logitudinal health study
+3 rounds of online surveys over course of 1 year
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify up to 5 people that:
+-you turn to for help
+-turn to you for help
+-are experts
+-are a personal friend
+</t>
+  </si>
+  <si>
+    <t>longitudinal health study</t>
+  </si>
+  <si>
+    <t>zero = zero; if left blank or refused to answer, then dropped from analysis</t>
+  </si>
+  <si>
+    <t>Higher network size = weaker ties
+use name generators
+political netowrk size follows similar pattern to social network size but it is more dispersed</t>
+  </si>
+  <si>
+    <t>Suanet and Huxhold (2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is an issue with the measurement
+They assess cohort differences but too extensive network size </t>
+  </si>
+  <si>
+    <t>Longitudinal Aging Study Amsterdam</t>
+  </si>
+  <si>
+    <t>Name people in personal network</t>
+  </si>
+  <si>
+    <t>0-88, where 88 is 88 or more</t>
+  </si>
+  <si>
+    <t>zero=zero; potential overreporting here given the limitless range</t>
+  </si>
+  <si>
+    <t>Counts of important people in regular contact for NS</t>
+  </si>
+  <si>
+    <t>multimorbidity = more loneliness (less NS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-sectional data from a German representative sample of community-dwelling adults aged 40 and over </t>
+  </si>
+  <si>
+    <t>zero=zero, missing data dropped</t>
+  </si>
+  <si>
+    <t>0-9, where 9 = &gt;8, no limits to how many they can name</t>
+  </si>
+  <si>
+    <t>zero = zero but also includes those that did not write down a name</t>
+  </si>
+  <si>
+    <t>higher social connectedness = higher political participation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who do they discuss politics? Government? Elections? </t>
+  </si>
+  <si>
+    <t>Observstional research using a sample of voting precincts 
+from Franklin County, Ohio, and the cities of Upper Arlington, 
+Ohio, and Broomfield, Colorado</t>
+  </si>
+  <si>
+    <t>ANES 1972-2000</t>
+  </si>
+  <si>
+    <t>Look at how the composition of social networks affects political ideology and religious standings</t>
+  </si>
+  <si>
+    <t>Not addressed for size</t>
+  </si>
+  <si>
+    <t>Lee and Bearman (2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESS data 2016
+Nationally representative survey experiment of 1,055 American adults during the fall of the 2016 U.S. presidential election </t>
+  </si>
+  <si>
+    <t>Primary focus is social composition and its influence on characteristics, not size</t>
+  </si>
+  <si>
+    <t>For the important matters name generator: From time to time, most people discuss important matters with other people. Looking back over the last month—who are the people
+with whom you discussed matters important to you? Just tell us their first names or
+initials.
+For the political matters name generator: From time to time, most people discuss government, elections, and politics with other people. Looking back over the last month—who
+are the people with whom you discussed matters political to you? Just tell us their first
+names or initials.</t>
+  </si>
+  <si>
+    <t>zero = zero, but they are asked whether the zero means that they had nothing to talk about or whether they really had no one to talk to about the matters</t>
+  </si>
+  <si>
+    <t>About how many good friends do you have?</t>
+  </si>
+  <si>
+    <t>1998 GSS</t>
+  </si>
+  <si>
+    <t>· 1998 GSS
+· Simpler name-generator reduces interviewer effects
+     · The higher the number of responses, the higher the potential interviewer effects
+· 2-level models in Stata
+· Global measure: "About how many good friends do you have?"
+· Interviewer characteristic: experience versus education</t>
+  </si>
+  <si>
+    <t>zero=zero, if less than threshold, pushed for names</t>
+  </si>
+  <si>
+    <t>Josten and Trappman (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS: First asked whether they have any close friends or family members
+ outside household with whom they have a strong relationship.
+Followed by number of such contacts outside household. 
+For three closest relationships, respondents were asked five follow-up questions 
+about the alter’s gender, education, employment status, frequency of contact 
+and the kinship relation between respondent and alter. </t>
+  </si>
+  <si>
+    <t>PASS German survey</t>
+  </si>
+  <si>
+    <t>no limit noted</t>
+  </si>
+  <si>
+    <t>zero = zero, but there is the caveat as to whether it means that they responded 0 to the first part or the followups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">· Later in the survey - less likely to respond
+· Time limits, relationship types, relationship quantity, frequency
+· If you keep it simple, there will be a higher response 
+2011-2013 longitudinal health study
+· Appendix showed similar results as the original paper
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) “Please identify up to five staff in this health unit to whom you regularly turn to help you apply research evidence to inform your professional activities” (information seeking)
+(b) “Please identify up to five staff in this health unit who regularly turn to you to help them apply research evidence to inform their professional activities” (reverse information seeking)
+(c) “Please identify up to five staff in this health unit who are experienced and knowledgeable in finding research evidence and translating it into practice” (expertise recognition)
+(d) “Please identify up to five staff in this health unit whom you consider a personal friend” (friendship network). </t>
+  </si>
+  <si>
+    <t>Tested blanks as both refusals and DKs and very similar results obtained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online survey of public health staff </t>
+  </si>
+  <si>
+    <t>5 lines provided, they can note more though</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESS data from 2016
+Ignoring potential misreporting of 0 
+Research to separate important matters from political matters, as this is often confounded together. </t>
+  </si>
+  <si>
+    <t>Cloning Headless Frogs and Other Important Matters: 
+Conversation Topics and Network Structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Important Matters" is a vague term that leads to question the name generator in GSS.
+The question is whether people report no network because they have no on to talk to
+or nothing to talk about. About 50% for both cases. There are asymmetries across 
+groups, so generalizations across cultures/groups may be risky. </t>
+  </si>
+  <si>
+    <t>Network size is not measured;
+reason for no network is</t>
+  </si>
+  <si>
+    <t>Look at zero depending on reason - no important matters to discuss
+or no one to discuss them with</t>
+  </si>
+  <si>
+    <t>Bearman and Parigi (2004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Socially isolated" versus "unconcerned" zeroes
+Priming individuals prior to asking the important matters question
+increases names provided by 1.2 on average, less likelihood of being
+ unconcerned zeroes, but does not change the socially isolated zeroes, 
+suggesting the increase is not an "invention of partners". </t>
+  </si>
+  <si>
+    <t>Brashears (2011)</t>
+  </si>
+  <si>
+    <t>Small networks and high isolation? A reexamination of American discussion networks</t>
+  </si>
+  <si>
+    <t>Respondents answered four global estimator items, indicating how many
+others they know by name and face, how many others there are
+with whom they could discuss important matters, how many others there are from whom they could borrow a large sum of money,
+and how many others there are with whom they could engage in
+social activities. In all four items there was no requirement that the
+respondent have actually engaged in the specified activity with a
+specific person during a particular period of time.</t>
+  </si>
+  <si>
+    <t>0-24; 0 separated as socially isolated 
+versus unconcerned</t>
+  </si>
+  <si>
+    <t>zero broken out into socially isolated versus unconcerned</t>
+  </si>
+  <si>
+    <t>The 2004 GSS Finding of Shrunken Social Networks: An Artifact?</t>
+  </si>
+  <si>
+    <t>Fischer (2006)</t>
+  </si>
+  <si>
+    <t>Question 1: From time to time, most people discuss important matters with other
+people. Looking back over the last six months, that is, since early last May, have
+you discussed important matters with anyone?
+Question 2: Thinking back to the most recent discussion you had about an
+important matter, would you mind telling me, briefly, what was the general topic
+of this discussion?
+Question 3: Most recently, is the person you talked to about this matter: a spouse,
+other relative, friend, counselor, lawyer, doctor, acquaintance, or what?
+Question 4: Which best describes why you haven’t discussed any important matters
+with others lately. Would you say that: (1) You haven’t had any important matters
+to discuss in the last six months, or (2) You haven’t had a person you wanted to
+discuss important matters with in the last six months.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina Poll (Nov 1997)
+</t>
+  </si>
+  <si>
+    <t>Nationally-representative survey of noninstitutionalized adults, using TESS</t>
+  </si>
+  <si>
+    <t>This is a review of some works and a particular questioning of the 
+validity of the GSS; in particular, it poses some theories, one of them
+being exhaustion and interviewer effects; however, Brashears (2011)
+shows this to not be true as exhaustion effects were not significant</t>
+  </si>
+  <si>
+    <t>More of a review paper, no particular tests/hypotheses</t>
+  </si>
+  <si>
+    <t>Are respondents more likely to list alters with certain characteristics? Implications for name generator data</t>
+  </si>
+  <si>
+    <t>Marin (2004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shows the underreporting of network size, tied to density, duration 
+of relationship, and closeness to individuals. Higher values on all three
+is higher accuracy of network size. </t>
+  </si>
+  <si>
+    <t>survey where participants were recruited through a flyer 
+at a social science building in a university</t>
+  </si>
+  <si>
+    <t>GSS name genetor for network size</t>
+  </si>
+  <si>
+    <t>0=0, no distinctions made as to the potential differences in the zeroes</t>
+  </si>
+  <si>
+    <t>Lubben (1998)</t>
+  </si>
+  <si>
+    <t>Assessing social networks among elderly populations</t>
   </si>
   <si>
     <r>
@@ -236,28 +743,9 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Do those who are less connected differ in political ideology/behavior? How does context come into play?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve"> Do those who are less connected differ in political ideology/behavior? How does context come into play?
 · Look at individual, network, and community
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     · CNES-A (1992)
+      · CNES-A (1992)
 · </t>
     </r>
     <r>
@@ -304,525 +792,35 @@
     </r>
   </si>
   <si>
-    <t>Social connectedness as seen by network size (0-5; 0 is a 0)
-Political behavior (ideology, political participation)</t>
-  </si>
-  <si>
-    <t>CNES-A (1992)</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>Zero = zero (more socially isolated)</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Hypothesis:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Political behavior can spread through an online social network
-· Randomized controlled trial
-· "I voted", Find polling place, actually vote 
-     · Close friends online &gt; influence on all 3
-     · Friends &gt; influence on 1
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Facebook online experiment </t>
-  </si>
-  <si>
-    <t>Friends versus close friends on FB:
-"close friends" = 80th percentile of frequency of interaction 
-"Friends" = all others
-Political Participation = clicks and interactions on polling place, likelihood of voting, and reporting of voting</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Actions on Facebook presented as ads</t>
-  </si>
-  <si>
-    <t>Index - One point was assigned if: 
-participants were not married (never married, separated, divorced, widowed)
-were living alone
-had less than monthly contact with their children and friends
-did not participate in any volunteer work or social groups (social clubs, resident groups, or religious groups) in the last 3 months. This resulted in a scale ranging from 0 to 6. 
-≥4 versus &lt;4 points to indicate high versus low level of social isolation</t>
-  </si>
-  <si>
-    <t>Social Isolation, Loneliness, and All-Cause Mortality in Patients With Cardiovascular Disease
-A 10-Year Follow-up Study</t>
-  </si>
-  <si>
-    <t>Yu et al (2020)</t>
-  </si>
-  <si>
-    <t>Social isolation leads to higher mortality rates, particularly for CVD
-Social Isolation in measured as an index (often used in other medical studies)</t>
-  </si>
-  <si>
-    <t>Cohort of CVD patients followed for up to 10 years to see health</t>
-  </si>
-  <si>
-    <t>zero = high social isoloation, 6 = socially isolated</t>
-  </si>
-  <si>
-    <t>patients - isolated versus not isolated</t>
-  </si>
-  <si>
-    <t>social network size - asked who:
-1) they like to talk to and do things with
-2) have invited them out during the last 4 weeks
-3) they can borrow things from and ask favors of
-4) could help them make a very important personal decision
-5) they could talk with and who would understand them if a very close friend or relative was extremely ill or had just died
-6) would talk to them, encourage them, and make them feel better about themselves when everything goes wrong and they feel down and discouraged and even doubt their own worth. 
-multiple measures created from this - total number of different people mentioned was recorded as network size</t>
-  </si>
-  <si>
-    <t>respond to the questions - no limits noted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zero = zero </t>
-  </si>
-  <si>
-    <t>· Three-process Theory: compliance, identification,
-and internalization
-· Smoke experiment in psychology
-     · Bystander effect (Latane and Darley)
-          · Look to others for social cues</t>
-  </si>
-  <si>
-    <t>· Data from Southbend election survey
-· Social networks only influence participation when they 
-carry political substance even when contorlling for
-membership in formal institutions
-· 1984 presidential 
-· Names of people they talk about politics to
-     · Political activities
-          · Again, no social media</t>
-  </si>
-  <si>
-    <t>who do they talk to regarding politics? Up to 3 people</t>
-  </si>
-  <si>
-    <t>South Bend Data Survey - 3 waves - 1984 election</t>
-  </si>
-  <si>
-    <t>zero = zero</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>Network Size - the number of people that an individual discusses political topics on a regular basis
-Summary Network Size Measure - simply ask them to estimate their network size
-GSS: Asked in terms of "good friends" network
-DDB question: “Outside your immediate family, how many people do you often talk with
-about politics or public affairs?” 
-Battleground question: “How many people did you talk to about politics in an average week?” 
-Student activity group question: For each other member of the group, respondents were asked: “Please indicate ... how often you have talked to _____ about the presidential campaign this quarter (fall 2008),”
-Polimetrix question: “During a typical week, with how many different people do you
-usually discuss politics?” 
-Qualtrics question: “In a typical week, about how many people do you talk
-about politics and public affairs with?”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zero = zero </t>
-  </si>
-  <si>
-    <t>1985 GSS</t>
-  </si>
-  <si>
-    <t>Name generator question - Marsden GSS; 
-Spouse, Parent, Sibling, Child,
- Other family, Coworker, Member of group,
- Neighbor, Friend, Advisor, Other
-Network density:
-coded 0 if the respondent reports that two of his
-or her confidants are total strangers, 1 if they are
-especially close, and 0.5 otherwise</t>
-  </si>
-  <si>
-    <t>Psychology Theory</t>
-  </si>
-  <si>
-    <t>Social Isolation in America: Changes in Cope Discussion Networks over Two Decades</t>
-  </si>
-  <si>
-    <t>Redid three studies - see notes column</t>
-  </si>
-  <si>
-    <t>Network Size - focus on DK
-Dropped versus included in as inaccurate across all three studies</t>
-  </si>
-  <si>
-    <t>name people, no limit mentioned</t>
-  </si>
-  <si>
-    <t>Depends on study</t>
-  </si>
-  <si>
-    <t>Network size - DKs were dropped and compared to DKs included but marked inaccurate</t>
-  </si>
-  <si>
-    <t>Social Network Size - asked about multiple alters
-Social connectedness and frequency of contact</t>
-  </si>
-  <si>
-    <t>Longitudinal study of sexual and drug use ego networks</t>
-  </si>
-  <si>
-    <t>no limits noted for network size</t>
-  </si>
-  <si>
-    <t>· They look at close relationships
-· When you ask for more people, there tends to be more error
-· The types of relationships also matter 
-Of note, there was also the situation where people did not report alters not because they did not have a network, but because they couldn't remember the name
-Discrepancies between how those people were addressed was very minor. Based on these discrepancies, we infer that informants who give a global estimate of network size do not generally construct a complete internal list of alters except when there are only a few alters.</t>
-  </si>
-  <si>
-    <t>Keeping versus dropping people that did not mention network people because they forgot names</t>
-  </si>
-  <si>
-    <t>Network size in terms of important matters</t>
-  </si>
-  <si>
-    <t>2004/2010 GSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004 and 2010 Face to Face GSS
-Negative correlation between interviwer effects and mean network size
-social connectedness declining?
-Measurement error and at interviwer level
-     Item wording
-     Questionnaire construction
-     Missing data due to item-level response
-     Systematic interviewer effects
-DV = important-matters name generator
-     page 343, up to 6, push if less than 5
-Face-to-face contacts
-Look at friends and geograhpic components as well
-</t>
-  </si>
-  <si>
-    <t>0-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Later in the survey = less likely to respond
-Look at time limits, relationship types, relationship quality, and frequency of contact
-2011-2013 logitudinal health study
-3 rounds of online surveys over course of 1 year
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identify up to 5 people that:
--you turn to for help
--turn to you for help
--are experts
--are a personal friend
-</t>
-  </si>
-  <si>
-    <t>longitudinal health study</t>
-  </si>
-  <si>
-    <t>zero = zero; if left blank or refused to answer, then dropped from analysis</t>
-  </si>
-  <si>
-    <t>Higher network size = weaker ties
-use name generators
-political netowrk size follows similar pattern to social network size but it is more dispersed</t>
-  </si>
-  <si>
-    <t>Suanet and Huxhold (2017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is an issue with the measurement
-They assess cohort differences but too extensive network size </t>
-  </si>
-  <si>
-    <t>Longitudinal Aging Study Amsterdam</t>
-  </si>
-  <si>
-    <t>Name people in personal network</t>
-  </si>
-  <si>
-    <t>0-88, where 88 is 88 or more</t>
-  </si>
-  <si>
-    <t>zero=zero; potential overreporting here given the limitless range</t>
-  </si>
-  <si>
-    <t>Counts of important people in regular contact for NS</t>
-  </si>
-  <si>
-    <t>multimorbidity = more loneliness (less NS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross-sectional data from a German representative sample of community-dwelling adults aged 40 and over </t>
-  </si>
-  <si>
-    <t>zero=zero, missing data dropped</t>
-  </si>
-  <si>
-    <t>0-9, where 9 = &gt;8, no limits to how many they can name</t>
-  </si>
-  <si>
-    <t>zero = zero but also includes those that did not write down a name</t>
-  </si>
-  <si>
-    <t>higher social connectedness = higher political participation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who do they discuss politics? Government? Elections? </t>
-  </si>
-  <si>
-    <t>Observstional research using a sample of voting precincts 
-from Franklin County, Ohio, and the cities of Upper Arlington, 
-Ohio, and Broomfield, Colorado</t>
-  </si>
-  <si>
-    <t>ANES 1972-2000</t>
-  </si>
-  <si>
-    <t>Look at how the composition of social networks affects political ideology and religious standings</t>
-  </si>
-  <si>
-    <t>Not addressed for size</t>
-  </si>
-  <si>
-    <t>Lee and Bearman (2020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESS data 2016
-Nationally representative survey experiment of 1,055 American adults during the fall of the 2016 U.S. presidential election </t>
-  </si>
-  <si>
-    <t>Primary focus is social composition and its influence on characteristics, not size</t>
-  </si>
-  <si>
-    <t>For the important matters name generator: From time to time, most people discuss important matters with other people. Looking back over the last month—who are the people
-with whom you discussed matters important to you? Just tell us their first names or
-initials.
-For the political matters name generator: From time to time, most people discuss government, elections, and politics with other people. Looking back over the last month—who
-are the people with whom you discussed matters political to you? Just tell us their first
-names or initials.</t>
-  </si>
-  <si>
-    <t>zero = zero, but they are asked whether the zero means that they had nothing to talk about or whether they really had no one to talk to about the matters</t>
-  </si>
-  <si>
-    <t>About how many good friends do you have?</t>
-  </si>
-  <si>
-    <t>1998 GSS</t>
-  </si>
-  <si>
-    <t>· 1998 GSS
-· Simpler name-generator reduces interviewer effects
-     · The higher the number of responses, the higher the potential interviewer effects
-· 2-level models in Stata
-· Global measure: "About how many good friends do you have?"
-· Interviewer characteristic: experience versus education</t>
-  </si>
-  <si>
-    <t>zero=zero, if less than threshold, pushed for names</t>
-  </si>
-  <si>
-    <t>Josten and Trappman (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS: First asked whether they have any close friends or family members
- outside household with whom they have a strong relationship.
-Followed by number of such contacts outside household. 
-For three closest relationships, respondents were asked five follow-up questions 
-about the alter’s gender, education, employment status, frequency of contact 
-and the kinship relation between respondent and alter. </t>
-  </si>
-  <si>
-    <t>PASS German survey</t>
-  </si>
-  <si>
-    <t>no limit noted</t>
-  </si>
-  <si>
-    <t>zero = zero, but there is the caveat as to whether it means that they responded 0 to the first part or the followups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">· Later in the survey - less likely to respond
-· Time limits, relationship types, relationship quantity, frequency
-· If you keep it simple, there will be a higher response 
-2011-2013 longitudinal health study
-· Appendix showed similar results as the original paper
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(a) “Please identify up to five staff in this health unit to whom you regularly turn to help you apply research evidence to inform your professional activities” (information seeking)
-(b) “Please identify up to five staff in this health unit who regularly turn to you to help them apply research evidence to inform their professional activities” (reverse information seeking)
-(c) “Please identify up to five staff in this health unit who are experienced and knowledgeable in finding research evidence and translating it into practice” (expertise recognition)
-(d) “Please identify up to five staff in this health unit whom you consider a personal friend” (friendship network). </t>
-  </si>
-  <si>
-    <t>Tested blanks as both refusals and DKs and very similar results obtained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online survey of public health staff </t>
-  </si>
-  <si>
-    <t>5 lines provided, they can note more though</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESS data from 2016
-Ignoring potential misreporting of 0 
-Research to separate important matters from political matters, as this is often confounded together. </t>
-  </si>
-  <si>
-    <t>Cloning Headless Frogs and Other Important Matters: 
-Conversation Topics and Network Structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Important Matters" is a vague term that leads to question the name generator in GSS.
-The question is whether people report no network because they have no on to talk to
-or nothing to talk about. About 50% for both cases. There are asymmetries across 
-groups, so generalizations across cultures/groups may be risky. </t>
-  </si>
-  <si>
-    <t>Network size is not measured;
-reason for no network is</t>
-  </si>
-  <si>
-    <t>Look at zero depending on reason - no important matters to discuss
-or no one to discuss them with</t>
-  </si>
-  <si>
-    <t>Bearman and Parigi (2004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Socially isolated" versus "unconcerned" zeroes
-Priming individuals prior to asking the important matters question
-increases names provided by 1.2 on average, less likelihood of being
- unconcerned zeroes, but does not change the socially isolated zeroes, 
-suggesting the increase is not an "invention of partners". </t>
-  </si>
-  <si>
-    <t>Brashears (2011)</t>
-  </si>
-  <si>
-    <t>Small networks and high isolation? A reexamination of American discussion networks</t>
-  </si>
-  <si>
-    <t>Respondents answered four global estimator items, indicating how many
-others they know by name and face, how many others there are
-with whom they could discuss important matters, how many others there are from whom they could borrow a large sum of money,
-and how many others there are with whom they could engage in
-social activities. In all four items there was no requirement that the
-respondent have actually engaged in the specified activity with a
-specific person during a particular period of time.</t>
-  </si>
-  <si>
-    <t>0-24; 0 separated as socially isolated 
-versus unconcerned</t>
-  </si>
-  <si>
-    <t>zero broken out into socially isolated versus unconcerned</t>
-  </si>
-  <si>
-    <t>The 2004 GSS Finding of Shrunken Social Networks: An Artifact?</t>
-  </si>
-  <si>
-    <t>Fischer (2006)</t>
-  </si>
-  <si>
-    <t>Question 1: From time to time, most people discuss important matters with other
-people. Looking back over the last six months, that is, since early last May, have
-you discussed important matters with anyone?
-Question 2: Thinking back to the most recent discussion you had about an
-important matter, would you mind telling me, briefly, what was the general topic
-of this discussion?
-Question 3: Most recently, is the person you talked to about this matter: a spouse,
-other relative, friend, counselor, lawyer, doctor, acquaintance, or what?
-Question 4: Which best describes why you haven’t discussed any important matters
-with others lately. Would you say that: (1) You haven’t had any important matters
-to discuss in the last six months, or (2) You haven’t had a person you wanted to
-discuss important matters with in the last six months.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Carolina Poll (Nov 1997)
-</t>
-  </si>
-  <si>
-    <t>Nationally-representative survey of noninstitutionalized adults, using TESS</t>
-  </si>
-  <si>
-    <t>This is a review of some works and a particular questioning of the 
-validity of the GSS; in particular, it poses some theories, one of them
-being exhaustion and interviewer effects; however, Brashears (2011)
-shows this to not be true as exhaustion effects were not significant</t>
-  </si>
-  <si>
-    <t>More of a review paper, no particular tests/hypotheses</t>
-  </si>
-  <si>
-    <t>Are respondents more likely to list alters with certain characteristics? Implications for name generator data</t>
-  </si>
-  <si>
-    <t>Marin (2004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows the underreporting of network size, tied to density, duration 
-of relationship, and closeness to individuals. Higher values on all three
-is higher accuracy of network size. </t>
-  </si>
-  <si>
-    <t>survey where participants were recruited through a flyer 
-at a social science building in a university</t>
+    <t>LSNS measure for older populations is better than the BSNI</t>
   </si>
   <si>
     <t>GSS name generator, then promopt of different groups and people in those groups with them,
 then name generator again. 
 “In the following set of questions you will be asked to think about the people who you know
 from groups or activities that you participate in”.
-“You may have discussed important matters with some of these people and forgotten to list
-them earlier. It is very important that you provide a complete list of people with whom you
-have discussed important matters. Therefore, please think carefully about the people who
-fit into each of these categories. If you have discussed important matters with any of these
-people and not yet listed them, please list their first names in the boxes provided. Use an
-initial if two people share the same name. You need not re-enter the names of people you
-have already listed”</t>
-  </si>
-  <si>
-    <t>GSS name genetor for network size</t>
-  </si>
-  <si>
-    <t>0=0, no distinctions made as to the potential differences in the zeroes</t>
+“You may have discussed important matters with some of these people and forgotten to list them earlier. It is very important that you provide a complete list of people with whom you have discussed important matters. Therefore, please think carefully about the people who fit into each of these categories. If you have discussed important matters with any of these people and not yet listed them, please list their first names in the boxes provided. Use an initial if two people share the same name. You need not re-enter the names of people you have already listed”</t>
+  </si>
+  <si>
+    <t>See BSNI and BSNI_Scoring docs for more information on 
+wording, as well as LSNS</t>
+  </si>
+  <si>
+    <t>LSNS index questionnaire given to elders to see correlation for health and other metrics</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Network size is measured as an index with multiple dimensions
+as opposed to a single-item measure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,13 +833,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="2"/>
     </font>
     <font>
       <b/>
@@ -871,11 +862,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,13 +1185,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED110036-0BCB-4E90-8ACC-C48100978C4A}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="87.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.6328125" style="1" customWidth="1"/>
@@ -1209,7 +1203,7 @@
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="325.5">
+    <row r="2" spans="1:7" ht="325.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1240,10 +1234,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>45</v>
@@ -1255,7 +1249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="186">
+    <row r="3" spans="1:7" ht="186" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1263,22 +1257,22 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="108.5">
+    </row>
+    <row r="4" spans="1:7" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1286,22 +1280,22 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="201.5">
+    </row>
+    <row r="5" spans="1:7" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1312,19 +1306,19 @@
         <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="124">
+    </row>
+    <row r="6" spans="1:7" ht="124" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1332,24 +1326,24 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="139.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -1358,19 +1352,19 @@
         <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="77.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,22 +1372,22 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="201.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1404,19 +1398,19 @@
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="217">
+    </row>
+    <row r="10" spans="1:7" ht="217" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1424,22 +1418,22 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="310">
+    </row>
+    <row r="11" spans="1:7" ht="310" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1447,22 +1441,22 @@
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="124">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="124" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1470,45 +1464,45 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="155">
+    </row>
+    <row r="13" spans="1:7" ht="155" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="186">
+    </row>
+    <row r="14" spans="1:7" ht="186" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1516,45 +1510,45 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="46.5">
+    </row>
+    <row r="15" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="46.5">
+    </row>
+    <row r="16" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1562,22 +1556,22 @@
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="77.5">
+    </row>
+    <row r="17" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1585,22 +1579,22 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="108.5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1608,22 +1602,22 @@
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1631,157 +1625,180 @@
         <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="201.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="372" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="170.5">
-      <c r="A21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="372">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="201.5">
-      <c r="A23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="124" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="124">
-      <c r="A24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="263.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="325.5">
-      <c r="A25" t="s">
+      <c r="B25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>161</v>
+      <c r="C26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
